--- a/metadata_DEB.xlsx
+++ b/metadata_DEB.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uqar01-my.sharepoint.com/personal/guij0038_uqar_ca/Documents/Bureau/PhD/Nouveau dév/Course/DEBschool/Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE5BB584-729C-4D5C-9C86-A99A9A87959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CE5BB584-729C-4D5C-9C86-A99A9A87959C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{627D34BB-C91F-4D60-9E08-DCCAFF62A875}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CE74E238-651F-4A57-8572-9CEDF2250FB0}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16160" windowHeight="7160" xr2:uid="{CE74E238-651F-4A57-8572-9CEDF2250FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>pivot_weight and pivot_mass</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>length and mass of fish from MPOsurveys from 1987 to 2014</t>
+  </si>
+  <si>
+    <t>all length are forklength except for larvae is standard length</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D17BB0-E542-4588-B78E-EA4A5D458B9B}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,6 +499,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
